--- a/predictions/прогнозы_SARIMA_122.xlsx
+++ b/predictions/прогнозы_SARIMA_122.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12157173.95946336</v>
+        <v>17031253.78361053</v>
       </c>
       <c r="C2" t="n">
-        <v>17609499.91964079</v>
+        <v>16915807.49955929</v>
       </c>
       <c r="D2" t="n">
-        <v>17222466.7355534</v>
+        <v>12327864.17192769</v>
       </c>
       <c r="E2" t="n">
-        <v>13195122.97832764</v>
+        <v>7361088.301057026</v>
       </c>
       <c r="F2" t="n">
-        <v>8266406.512797549</v>
+        <v>9721695.440760659</v>
       </c>
       <c r="G2" t="n">
-        <v>10741840.78544396</v>
+        <v>11357174.10386464</v>
       </c>
       <c r="H2" t="n">
-        <v>11325364.84536169</v>
+        <v>13746460.28096754</v>
       </c>
       <c r="I2" t="n">
-        <v>13475439.43863984</v>
+        <v>9281125.178966593</v>
       </c>
       <c r="J2" t="n">
-        <v>9761969.144476602</v>
+        <v>5767875.320430868</v>
       </c>
       <c r="K2" t="n">
-        <v>8358036.951288471</v>
+        <v>6805068.549082045</v>
       </c>
       <c r="L2" t="n">
-        <v>7663005.640016392</v>
+        <v>4865397.744209833</v>
       </c>
       <c r="M2" t="n">
-        <v>6181234.570606549</v>
+        <v>-2081678.832571042</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15772306.53506171</v>
+        <v>11876090.53292363</v>
       </c>
       <c r="C3" t="n">
-        <v>15484724.80228633</v>
+        <v>18892249.62855789</v>
       </c>
       <c r="D3" t="n">
-        <v>21670964.79414515</v>
+        <v>12048993.70087147</v>
       </c>
       <c r="E3" t="n">
-        <v>18227772.80766195</v>
+        <v>14529243.43705657</v>
       </c>
       <c r="F3" t="n">
-        <v>21125916.06161663</v>
+        <v>11275798.16429377</v>
       </c>
       <c r="G3" t="n">
-        <v>20161466.48138887</v>
+        <v>9162365.98868544</v>
       </c>
       <c r="H3" t="n">
-        <v>19966799.28001245</v>
+        <v>10836130.59832888</v>
       </c>
       <c r="I3" t="n">
-        <v>22303289.28786206</v>
+        <v>14173502.67179242</v>
       </c>
       <c r="J3" t="n">
-        <v>26492775.13266467</v>
+        <v>13852696.52684179</v>
       </c>
       <c r="K3" t="n">
-        <v>28222740.95711597</v>
+        <v>17069548.26722477</v>
       </c>
       <c r="L3" t="n">
-        <v>32084646.63979505</v>
+        <v>17441442.47227108</v>
       </c>
       <c r="M3" t="n">
-        <v>35839327.04667094</v>
+        <v>8655155.938297193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22563844.08056659</v>
+        <v>63585577.14216688</v>
       </c>
       <c r="C4" t="n">
-        <v>26739960.37728151</v>
+        <v>70976416.91660982</v>
       </c>
       <c r="D4" t="n">
-        <v>25557177.59661204</v>
+        <v>79052417.98139915</v>
       </c>
       <c r="E4" t="n">
-        <v>29173469.06945931</v>
+        <v>90578014.29461171</v>
       </c>
       <c r="F4" t="n">
-        <v>30246036.52122013</v>
+        <v>106800218.4991928</v>
       </c>
       <c r="G4" t="n">
-        <v>35208414.44571558</v>
+        <v>123341676.1737689</v>
       </c>
       <c r="H4" t="n">
-        <v>39388785.09851892</v>
+        <v>148373930.8737101</v>
       </c>
       <c r="I4" t="n">
-        <v>47449924.07676359</v>
+        <v>165780883.3414724</v>
       </c>
       <c r="J4" t="n">
-        <v>46140920.87657228</v>
+        <v>193232500.5335642</v>
       </c>
       <c r="K4" t="n">
-        <v>59408393.92866493</v>
+        <v>196751556.7366202</v>
       </c>
       <c r="L4" t="n">
-        <v>57271183.50597881</v>
+        <v>228438219.5243903</v>
       </c>
       <c r="M4" t="n">
-        <v>66561119.36177666</v>
+        <v>260558262.6594146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23151429.61623385</v>
+        <v>30629881.85503178</v>
       </c>
       <c r="C5" t="n">
-        <v>25392520.44582107</v>
+        <v>27120692.35212026</v>
       </c>
       <c r="D5" t="n">
-        <v>28037964.6473022</v>
+        <v>34273201.44701108</v>
       </c>
       <c r="E5" t="n">
-        <v>30796316.69289969</v>
+        <v>37051900.11692815</v>
       </c>
       <c r="F5" t="n">
-        <v>35416953.10488448</v>
+        <v>39153177.66642983</v>
       </c>
       <c r="G5" t="n">
-        <v>42915089.9109937</v>
+        <v>33703523.67063624</v>
       </c>
       <c r="H5" t="n">
-        <v>49467316.14328603</v>
+        <v>35210954.07628587</v>
       </c>
       <c r="I5" t="n">
-        <v>62537167.11636443</v>
+        <v>35445913.70764679</v>
       </c>
       <c r="J5" t="n">
-        <v>84690416.86008319</v>
+        <v>38091145.84828067</v>
       </c>
       <c r="K5" t="n">
-        <v>85415117.20532836</v>
+        <v>43100014.86737976</v>
       </c>
       <c r="L5" t="n">
-        <v>88450548.02319135</v>
+        <v>78583753.75070724</v>
       </c>
       <c r="M5" t="n">
-        <v>111430543.9378563</v>
+        <v>20613306.68922223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6258913.471068487</v>
+        <v>3365078.02568182</v>
       </c>
       <c r="C6" t="n">
-        <v>13533115.82874352</v>
+        <v>4967810.525716765</v>
       </c>
       <c r="D6" t="n">
-        <v>9264414.57727015</v>
+        <v>-1414278.517529592</v>
       </c>
       <c r="E6" t="n">
-        <v>11380169.43432365</v>
+        <v>7463470.188517461</v>
       </c>
       <c r="F6" t="n">
-        <v>12743811.09615588</v>
+        <v>-4634022.197695397</v>
       </c>
       <c r="G6" t="n">
-        <v>14766664.82924788</v>
+        <v>825318.4562943242</v>
       </c>
       <c r="H6" t="n">
-        <v>9407092.550714815</v>
+        <v>-3262936.432809671</v>
       </c>
       <c r="I6" t="n">
-        <v>9295955.571610907</v>
+        <v>-5183621.181162669</v>
       </c>
       <c r="J6" t="n">
-        <v>9537546.384358309</v>
+        <v>-8216250.951957954</v>
       </c>
       <c r="K6" t="n">
-        <v>8723856.343193313</v>
+        <v>-3369668.81934333</v>
       </c>
       <c r="L6" t="n">
-        <v>11820702.13858324</v>
+        <v>-7316621.872390114</v>
       </c>
       <c r="M6" t="n">
-        <v>35137562.15539368</v>
+        <v>-8216784.711496362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-438237.918513041</v>
+        <v>15803222.98850056</v>
       </c>
       <c r="C7" t="n">
-        <v>3075352.048561213</v>
+        <v>17704987.86983386</v>
       </c>
       <c r="D7" t="n">
-        <v>1519035.474071053</v>
+        <v>18477841.90194869</v>
       </c>
       <c r="E7" t="n">
-        <v>1412725.328488094</v>
+        <v>23131449.94278746</v>
       </c>
       <c r="F7" t="n">
-        <v>-704977.1328298763</v>
+        <v>20150085.86219563</v>
       </c>
       <c r="G7" t="n">
-        <v>3240711.503215785</v>
+        <v>23281773.51349711</v>
       </c>
       <c r="H7" t="n">
-        <v>1296299.894380504</v>
+        <v>22876179.85938238</v>
       </c>
       <c r="I7" t="n">
-        <v>356934.5062152483</v>
+        <v>23784126.74185613</v>
       </c>
       <c r="J7" t="n">
-        <v>541615.8989554271</v>
+        <v>24803539.75204289</v>
       </c>
       <c r="K7" t="n">
-        <v>1353139.788738456</v>
+        <v>25048669.37423149</v>
       </c>
       <c r="L7" t="n">
-        <v>543967.8933393991</v>
+        <v>32372136.57332259</v>
       </c>
       <c r="M7" t="n">
-        <v>1823939.924108085</v>
+        <v>31652336.70592353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268860.094579986</v>
+        <v>25358113.14914121</v>
       </c>
       <c r="C8" t="n">
-        <v>1523401.68162548</v>
+        <v>22656808.10186546</v>
       </c>
       <c r="D8" t="n">
-        <v>1132526.305985336</v>
+        <v>28601526.9390268</v>
       </c>
       <c r="E8" t="n">
-        <v>1603778.374606256</v>
+        <v>30328625.48351397</v>
       </c>
       <c r="F8" t="n">
-        <v>1947631.339944213</v>
+        <v>28901056.9505215</v>
       </c>
       <c r="G8" t="n">
-        <v>1942054.801628908</v>
+        <v>28130985.65857</v>
       </c>
       <c r="H8" t="n">
-        <v>2110011.313116085</v>
+        <v>32123324.66944232</v>
       </c>
       <c r="I8" t="n">
-        <v>1805506.863762067</v>
+        <v>27701436.45055036</v>
       </c>
       <c r="J8" t="n">
-        <v>1491183.73927937</v>
+        <v>31685004.53318949</v>
       </c>
       <c r="K8" t="n">
-        <v>2756003.821209805</v>
+        <v>34630933.0418026</v>
       </c>
       <c r="L8" t="n">
-        <v>1767250.255046743</v>
+        <v>31358272.21009625</v>
       </c>
       <c r="M8" t="n">
-        <v>2326957.753030107</v>
+        <v>26195512.16273818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12033095.2409526</v>
+        <v>21069574.58223575</v>
       </c>
       <c r="C9" t="n">
-        <v>17366721.7087092</v>
+        <v>29365037.91849294</v>
       </c>
       <c r="D9" t="n">
-        <v>22716888.71674217</v>
+        <v>28745769.91011099</v>
       </c>
       <c r="E9" t="n">
-        <v>26905594.66290713</v>
+        <v>34346917.87780216</v>
       </c>
       <c r="F9" t="n">
-        <v>33137246.48887686</v>
+        <v>37528858.22573544</v>
       </c>
       <c r="G9" t="n">
-        <v>32490520.93382628</v>
+        <v>37268609.89632959</v>
       </c>
       <c r="H9" t="n">
-        <v>36719534.58831844</v>
+        <v>40763806.42140007</v>
       </c>
       <c r="I9" t="n">
-        <v>38767776.15359232</v>
+        <v>29691372.12893228</v>
       </c>
       <c r="J9" t="n">
-        <v>40323125.10436634</v>
+        <v>44520544.74168424</v>
       </c>
       <c r="K9" t="n">
-        <v>50553043.71704549</v>
+        <v>43605122.17231414</v>
       </c>
       <c r="L9" t="n">
-        <v>54158459.64078706</v>
+        <v>44418415.25487501</v>
       </c>
       <c r="M9" t="n">
-        <v>65461965.41487923</v>
+        <v>29481075.6869446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13640507.98781215</v>
+        <v>17072609.9197325</v>
       </c>
       <c r="C10" t="n">
-        <v>16822712.74838449</v>
+        <v>21829804.83090803</v>
       </c>
       <c r="D10" t="n">
-        <v>19115746.40528364</v>
+        <v>28825571.08764988</v>
       </c>
       <c r="E10" t="n">
-        <v>22251947.4750732</v>
+        <v>33208378.14478955</v>
       </c>
       <c r="F10" t="n">
-        <v>22881773.85539009</v>
+        <v>34612986.9727492</v>
       </c>
       <c r="G10" t="n">
-        <v>22732326.22131496</v>
+        <v>46139175.42079839</v>
       </c>
       <c r="H10" t="n">
-        <v>23806742.71736879</v>
+        <v>43656615.04139718</v>
       </c>
       <c r="I10" t="n">
-        <v>26006085.49642553</v>
+        <v>38244418.77623416</v>
       </c>
       <c r="J10" t="n">
-        <v>27595774.01044597</v>
+        <v>39992346.2047362</v>
       </c>
       <c r="K10" t="n">
-        <v>27194540.84241484</v>
+        <v>43216009.83693527</v>
       </c>
       <c r="L10" t="n">
-        <v>32058060.51452244</v>
+        <v>46011596.87899762</v>
       </c>
       <c r="M10" t="n">
-        <v>46541545.47748782</v>
+        <v>37058181.76053481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2962675.444097066</v>
+        <v>21680582.84275591</v>
       </c>
       <c r="C11" t="n">
-        <v>829070.0299009215</v>
+        <v>20318935.49444526</v>
       </c>
       <c r="D11" t="n">
-        <v>168162.8342159586</v>
+        <v>24034485.37381227</v>
       </c>
       <c r="E11" t="n">
-        <v>-2776864.154258456</v>
+        <v>23565967.40300313</v>
       </c>
       <c r="F11" t="n">
-        <v>7929198.520869166</v>
+        <v>28944257.41065603</v>
       </c>
       <c r="G11" t="n">
-        <v>-4356530.921448376</v>
+        <v>30012822.82749856</v>
       </c>
       <c r="H11" t="n">
-        <v>-2382638.998673883</v>
+        <v>33164600.86346223</v>
       </c>
       <c r="I11" t="n">
-        <v>-3758528.477565615</v>
+        <v>36164211.03018707</v>
       </c>
       <c r="J11" t="n">
-        <v>-5694175.797679033</v>
+        <v>45585261.7673049</v>
       </c>
       <c r="K11" t="n">
-        <v>-7637915.580772668</v>
+        <v>45446753.88588732</v>
       </c>
       <c r="L11" t="n">
-        <v>-4882184.587789396</v>
+        <v>43614965.38705064</v>
       </c>
       <c r="M11" t="n">
-        <v>-7271481.303852644</v>
+        <v>40343655.27901407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-746655.0333110285</v>
+        <v>31484625.99820321</v>
       </c>
       <c r="C12" t="n">
-        <v>-206281.1695817029</v>
+        <v>18460769.47178601</v>
       </c>
       <c r="D12" t="n">
-        <v>1064668.902411243</v>
+        <v>31347957.53273731</v>
       </c>
       <c r="E12" t="n">
-        <v>-1880127.840417564</v>
+        <v>28231706.46283476</v>
       </c>
       <c r="F12" t="n">
-        <v>-2314265.996138576</v>
+        <v>29727748.96119988</v>
       </c>
       <c r="G12" t="n">
-        <v>-2859778.040672658</v>
+        <v>31491377.46158086</v>
       </c>
       <c r="H12" t="n">
-        <v>-687471.9032582967</v>
+        <v>21732709.337962</v>
       </c>
       <c r="I12" t="n">
-        <v>-2548382.729122204</v>
+        <v>22630414.09150483</v>
       </c>
       <c r="J12" t="n">
-        <v>-2012512.705117633</v>
+        <v>37432488.88442725</v>
       </c>
       <c r="K12" t="n">
-        <v>-2085874.131143544</v>
+        <v>32918147.29754086</v>
       </c>
       <c r="L12" t="n">
-        <v>-1915277.732690409</v>
+        <v>15219638.80775495</v>
       </c>
       <c r="M12" t="n">
-        <v>-1920599.546008057</v>
+        <v>12475754.3502885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3300388.488949689</v>
+        <v>18616479.68523375</v>
       </c>
       <c r="C13" t="n">
-        <v>3442083.134728176</v>
+        <v>14898824.62260734</v>
       </c>
       <c r="D13" t="n">
-        <v>4106504.742700454</v>
+        <v>16242895.54385246</v>
       </c>
       <c r="E13" t="n">
-        <v>4087480.445340456</v>
+        <v>17531384.90814455</v>
       </c>
       <c r="F13" t="n">
-        <v>4848750.266002906</v>
+        <v>16579945.24301561</v>
       </c>
       <c r="G13" t="n">
-        <v>4615486.998276037</v>
+        <v>21338797.56347712</v>
       </c>
       <c r="H13" t="n">
-        <v>5934759.388511601</v>
+        <v>24059422.37720289</v>
       </c>
       <c r="I13" t="n">
-        <v>5806691.737522895</v>
+        <v>28108310.38915627</v>
       </c>
       <c r="J13" t="n">
-        <v>6082618.033421448</v>
+        <v>11622811.01980275</v>
       </c>
       <c r="K13" t="n">
-        <v>7468653.727452295</v>
+        <v>13332713.07853921</v>
       </c>
       <c r="L13" t="n">
-        <v>6904316.198268697</v>
+        <v>7267332.954453781</v>
       </c>
       <c r="M13" t="n">
-        <v>7639935.631324207</v>
+        <v>-2721394.29366795</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-125996.3266922594</v>
+        <v>1695320.490799363</v>
       </c>
       <c r="C14" t="n">
-        <v>284573.4606296774</v>
+        <v>2076169.965557472</v>
       </c>
       <c r="D14" t="n">
-        <v>724926.9686552752</v>
+        <v>2006590.491166887</v>
       </c>
       <c r="E14" t="n">
-        <v>590914.6740119648</v>
+        <v>1747673.017692349</v>
       </c>
       <c r="F14" t="n">
-        <v>-75175.26420878572</v>
+        <v>3630114.248578995</v>
       </c>
       <c r="G14" t="n">
-        <v>-325898.0823664383</v>
+        <v>6993653.634375477</v>
       </c>
       <c r="H14" t="n">
-        <v>-27977.2032180517</v>
+        <v>3577416.111934028</v>
       </c>
       <c r="I14" t="n">
-        <v>-424017.9865236315</v>
+        <v>4215467.828148221</v>
       </c>
       <c r="J14" t="n">
-        <v>-540861.6329132691</v>
+        <v>3290793.012602986</v>
       </c>
       <c r="K14" t="n">
-        <v>-16673.45946119982</v>
+        <v>4299550.955708037</v>
       </c>
       <c r="L14" t="n">
-        <v>-624068.3873933292</v>
+        <v>6341445.887994487</v>
       </c>
       <c r="M14" t="n">
-        <v>-552016.4521435091</v>
+        <v>1937371.603432705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1417848.364542172</v>
+        <v>3760527.970583908</v>
       </c>
       <c r="C15" t="n">
-        <v>1159632.211388821</v>
+        <v>5866812.565461836</v>
       </c>
       <c r="D15" t="n">
-        <v>1229384.360357821</v>
+        <v>5552023.85877797</v>
       </c>
       <c r="E15" t="n">
-        <v>1458854.111352763</v>
+        <v>3383966.18797159</v>
       </c>
       <c r="F15" t="n">
-        <v>1275404.568188741</v>
+        <v>4420593.818093045</v>
       </c>
       <c r="G15" t="n">
-        <v>1710801.480751864</v>
+        <v>3087076.072755871</v>
       </c>
       <c r="H15" t="n">
-        <v>1905389.388575324</v>
+        <v>5799743.776110988</v>
       </c>
       <c r="I15" t="n">
-        <v>1884621.601844531</v>
+        <v>6007650.987140958</v>
       </c>
       <c r="J15" t="n">
-        <v>1722783.425835877</v>
+        <v>5833021.61061825</v>
       </c>
       <c r="K15" t="n">
-        <v>1544312.146093665</v>
+        <v>7562455.301463012</v>
       </c>
       <c r="L15" t="n">
-        <v>1440775.447900197</v>
+        <v>7772732.293626209</v>
       </c>
       <c r="M15" t="n">
-        <v>3812545.743704629</v>
+        <v>5299969.966264213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1733238.417321265</v>
+        <v>4141191.056129813</v>
       </c>
       <c r="C16" t="n">
-        <v>1903390.711467509</v>
+        <v>58500.92517784238</v>
       </c>
       <c r="D16" t="n">
-        <v>1990755.45605448</v>
+        <v>8133306.116531635</v>
       </c>
       <c r="E16" t="n">
-        <v>2054915.103617533</v>
+        <v>4590472.170765676</v>
       </c>
       <c r="F16" t="n">
-        <v>2283039.30086157</v>
+        <v>4231035.542590618</v>
       </c>
       <c r="G16" t="n">
-        <v>2271788.918611969</v>
+        <v>4324723.896772751</v>
       </c>
       <c r="H16" t="n">
-        <v>2696474.720557813</v>
+        <v>420235.0405196697</v>
       </c>
       <c r="I16" t="n">
-        <v>2589740.794326305</v>
+        <v>7084409.151603719</v>
       </c>
       <c r="J16" t="n">
-        <v>2603467.900393846</v>
+        <v>5577612.183825528</v>
       </c>
       <c r="K16" t="n">
-        <v>2996069.879337011</v>
+        <v>8353211.216486134</v>
       </c>
       <c r="L16" t="n">
-        <v>2767745.285413023</v>
+        <v>7153302.892898978</v>
       </c>
       <c r="M16" t="n">
-        <v>4169156.073617039</v>
+        <v>3976053.735302985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7396877.67930825</v>
+        <v>6694085.7753719</v>
       </c>
       <c r="C17" t="n">
-        <v>9138562.167054964</v>
+        <v>3848920.89833029</v>
       </c>
       <c r="D17" t="n">
-        <v>9904782.851911908</v>
+        <v>4192338.045032776</v>
       </c>
       <c r="E17" t="n">
-        <v>9915529.027166937</v>
+        <v>3824890.274567272</v>
       </c>
       <c r="F17" t="n">
-        <v>12842638.6289958</v>
+        <v>3569842.291313842</v>
       </c>
       <c r="G17" t="n">
-        <v>11184787.0611667</v>
+        <v>4500371.426573058</v>
       </c>
       <c r="H17" t="n">
-        <v>12440795.82536214</v>
+        <v>4231249.308797977</v>
       </c>
       <c r="I17" t="n">
-        <v>12975356.92930113</v>
+        <v>3043566.914625062</v>
       </c>
       <c r="J17" t="n">
-        <v>13437965.7176681</v>
+        <v>4652110.511825292</v>
       </c>
       <c r="K17" t="n">
-        <v>12608993.59981106</v>
+        <v>4171238.159941396</v>
       </c>
       <c r="L17" t="n">
-        <v>13172832.95406707</v>
+        <v>3571185.263025581</v>
       </c>
       <c r="M17" t="n">
-        <v>15925809.10885961</v>
+        <v>690355.6605663411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4254561.122862607</v>
+        <v>3983987.46251384</v>
       </c>
       <c r="C18" t="n">
-        <v>-3799213.979223455</v>
+        <v>2669652.692249802</v>
       </c>
       <c r="D18" t="n">
-        <v>-4309611.207631431</v>
+        <v>4187717.201040952</v>
       </c>
       <c r="E18" t="n">
-        <v>-5083513.448684381</v>
+        <v>5706315.548345862</v>
       </c>
       <c r="F18" t="n">
-        <v>-6270257.819313523</v>
+        <v>3807783.343698462</v>
       </c>
       <c r="G18" t="n">
-        <v>-6617741.93579514</v>
+        <v>4509416.153797477</v>
       </c>
       <c r="H18" t="n">
-        <v>-7606367.106688811</v>
+        <v>3703020.620033249</v>
       </c>
       <c r="I18" t="n">
-        <v>-8282390.319418134</v>
+        <v>4788757.232376657</v>
       </c>
       <c r="J18" t="n">
-        <v>-8772504.880148692</v>
+        <v>4900574.29842395</v>
       </c>
       <c r="K18" t="n">
-        <v>-9678673.916632516</v>
+        <v>5711794.832151573</v>
       </c>
       <c r="L18" t="n">
-        <v>-10542481.43881236</v>
+        <v>4752758.073036322</v>
       </c>
       <c r="M18" t="n">
-        <v>-9118410.897026792</v>
+        <v>4800516.206017641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22246.61982188537</v>
+        <v>5940901.061028489</v>
       </c>
       <c r="C19" t="n">
-        <v>103421.7994968254</v>
+        <v>8362720.611121869</v>
       </c>
       <c r="D19" t="n">
-        <v>52912.99497923463</v>
+        <v>4884973.333339291</v>
       </c>
       <c r="E19" t="n">
-        <v>117116.4701428538</v>
+        <v>4299554.100666301</v>
       </c>
       <c r="F19" t="n">
-        <v>138288.0112960073</v>
+        <v>4047077.895539369</v>
       </c>
       <c r="G19" t="n">
-        <v>194545.7866121722</v>
+        <v>6871533.456875024</v>
       </c>
       <c r="H19" t="n">
-        <v>217677.0445813044</v>
+        <v>9635885.816522289</v>
       </c>
       <c r="I19" t="n">
-        <v>259285.991783629</v>
+        <v>6553929.391897494</v>
       </c>
       <c r="J19" t="n">
-        <v>185576.4510195903</v>
+        <v>9134171.86351594</v>
       </c>
       <c r="K19" t="n">
-        <v>335275.7997048682</v>
+        <v>8483905.825117076</v>
       </c>
       <c r="L19" t="n">
-        <v>381012.7717907847</v>
+        <v>6609043.417157686</v>
       </c>
       <c r="M19" t="n">
-        <v>461043.7628017076</v>
+        <v>8561737.630603503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>668380.6346047716</v>
+        <v>1712964.517091325</v>
       </c>
       <c r="C20" t="n">
-        <v>3325986.911827041</v>
+        <v>3458709.224137616</v>
       </c>
       <c r="D20" t="n">
-        <v>1092727.711805429</v>
+        <v>-2288419.128305535</v>
       </c>
       <c r="E20" t="n">
-        <v>1589176.158668209</v>
+        <v>-1565242.950667066</v>
       </c>
       <c r="F20" t="n">
-        <v>2033531.73883721</v>
+        <v>-2109437.766405421</v>
       </c>
       <c r="G20" t="n">
-        <v>2017032.053514696</v>
+        <v>-3225312.942298552</v>
       </c>
       <c r="H20" t="n">
-        <v>1280297.75039643</v>
+        <v>-2918134.170746319</v>
       </c>
       <c r="I20" t="n">
-        <v>2450815.954446255</v>
+        <v>-3008705.104892044</v>
       </c>
       <c r="J20" t="n">
-        <v>3509686.969727829</v>
+        <v>-3050056.818740266</v>
       </c>
       <c r="K20" t="n">
-        <v>1279818.131426008</v>
+        <v>-4022495.704531576</v>
       </c>
       <c r="L20" t="n">
-        <v>2185437.973701353</v>
+        <v>-5967888.896399219</v>
       </c>
       <c r="M20" t="n">
-        <v>1446225.359286215</v>
+        <v>-4811400.882108651</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1078247.262739959</v>
+        <v>2410978.445362499</v>
       </c>
       <c r="C21" t="n">
-        <v>3197349.096795914</v>
+        <v>3215600.054904521</v>
       </c>
       <c r="D21" t="n">
-        <v>1496761.206764382</v>
+        <v>3983155.11723485</v>
       </c>
       <c r="E21" t="n">
-        <v>2637660.905128143</v>
+        <v>3596744.467904441</v>
       </c>
       <c r="F21" t="n">
-        <v>4220308.577969588</v>
+        <v>4346820.171397698</v>
       </c>
       <c r="G21" t="n">
-        <v>1577582.58564418</v>
+        <v>3934261.779606635</v>
       </c>
       <c r="H21" t="n">
-        <v>1883589.807726188</v>
+        <v>3315152.160660221</v>
       </c>
       <c r="I21" t="n">
-        <v>2026717.470558485</v>
+        <v>1915025.481375929</v>
       </c>
       <c r="J21" t="n">
-        <v>1312983.004083064</v>
+        <v>1580089.8447268</v>
       </c>
       <c r="K21" t="n">
-        <v>2469216.625252414</v>
+        <v>4183732.367765215</v>
       </c>
       <c r="L21" t="n">
-        <v>2047662.019411933</v>
+        <v>5632589.856177714</v>
       </c>
       <c r="M21" t="n">
-        <v>2113779.975924043</v>
+        <v>2254646.817848245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2384470.004425758</v>
+        <v>5817389.958970105</v>
       </c>
       <c r="C22" t="n">
-        <v>-7772187.008120105</v>
+        <v>9491232.409598771</v>
       </c>
       <c r="D22" t="n">
-        <v>-8829624.020634711</v>
+        <v>11130156.81128556</v>
       </c>
       <c r="E22" t="n">
-        <v>-13569716.2570909</v>
+        <v>9895557.326777119</v>
       </c>
       <c r="F22" t="n">
-        <v>-19002260.93361199</v>
+        <v>14462729.73601688</v>
       </c>
       <c r="G22" t="n">
-        <v>-23051248.74843904</v>
+        <v>10201977.06858775</v>
       </c>
       <c r="H22" t="n">
-        <v>-28085246.89660127</v>
+        <v>9504842.705523077</v>
       </c>
       <c r="I22" t="n">
-        <v>-32295933.21299319</v>
+        <v>15463280.74906228</v>
       </c>
       <c r="J22" t="n">
-        <v>-35943161.76910524</v>
+        <v>10087761.97853654</v>
       </c>
       <c r="K22" t="n">
-        <v>-39546097.70285663</v>
+        <v>12767730.60501708</v>
       </c>
       <c r="L22" t="n">
-        <v>-43781611.54230939</v>
+        <v>8795982.198365957</v>
       </c>
       <c r="M22" t="n">
-        <v>-47277859.83717074</v>
+        <v>5713907.988236512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-289395.8318959875</v>
+        <v>8896346.965663981</v>
       </c>
       <c r="C23" t="n">
-        <v>-174077.205564671</v>
+        <v>10245043.16749008</v>
       </c>
       <c r="D23" t="n">
-        <v>-264517.2899156722</v>
+        <v>10355798.97152566</v>
       </c>
       <c r="E23" t="n">
-        <v>-556878.7931359889</v>
+        <v>13345227.01060877</v>
       </c>
       <c r="F23" t="n">
-        <v>-497118.9528543528</v>
+        <v>9789192.753969396</v>
       </c>
       <c r="G23" t="n">
-        <v>-706705.2390009793</v>
+        <v>11941836.01435841</v>
       </c>
       <c r="H23" t="n">
-        <v>-760648.1997293076</v>
+        <v>8911258.026037285</v>
       </c>
       <c r="I23" t="n">
-        <v>-819011.0013787358</v>
+        <v>10136909.91706034</v>
       </c>
       <c r="J23" t="n">
-        <v>-876141.712604143</v>
+        <v>7815233.373337115</v>
       </c>
       <c r="K23" t="n">
-        <v>-932636.7543145021</v>
+        <v>12333720.90459566</v>
       </c>
       <c r="L23" t="n">
-        <v>-995548.4768711241</v>
+        <v>7401249.722668529</v>
       </c>
       <c r="M23" t="n">
-        <v>-1157681.234982268</v>
+        <v>8052007.883945727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14008875.09080816</v>
+        <v>10013879.19160503</v>
       </c>
       <c r="C24" t="n">
-        <v>17627848.81481752</v>
+        <v>11732798.39572899</v>
       </c>
       <c r="D24" t="n">
-        <v>22823203.30868444</v>
+        <v>12661668.64806212</v>
       </c>
       <c r="E24" t="n">
-        <v>21687168.37635475</v>
+        <v>8431122.242278134</v>
       </c>
       <c r="F24" t="n">
-        <v>21992105.01113337</v>
+        <v>10013121.9646868</v>
       </c>
       <c r="G24" t="n">
-        <v>23093922.95997682</v>
+        <v>11425316.3541995</v>
       </c>
       <c r="H24" t="n">
-        <v>23799978.26576881</v>
+        <v>8320689.712959995</v>
       </c>
       <c r="I24" t="n">
-        <v>24064460.61609687</v>
+        <v>9696723.287936814</v>
       </c>
       <c r="J24" t="n">
-        <v>23165203.7459133</v>
+        <v>9770938.278886992</v>
       </c>
       <c r="K24" t="n">
-        <v>25672591.37403169</v>
+        <v>16040300.59586805</v>
       </c>
       <c r="L24" t="n">
-        <v>27635784.53865981</v>
+        <v>13759153.3236465</v>
       </c>
       <c r="M24" t="n">
-        <v>28953044.23150977</v>
+        <v>8699698.820706109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573914.2990494217</v>
+        <v>2896784.885313163</v>
       </c>
       <c r="C25" t="n">
-        <v>3542485.341289462</v>
+        <v>3912720.517915837</v>
       </c>
       <c r="D25" t="n">
-        <v>2373544.765034892</v>
+        <v>3923761.068026143</v>
       </c>
       <c r="E25" t="n">
-        <v>1913308.183227669</v>
+        <v>2516624.22810274</v>
       </c>
       <c r="F25" t="n">
-        <v>2463680.25685261</v>
+        <v>2975170.941735885</v>
       </c>
       <c r="G25" t="n">
-        <v>585427.791315278</v>
+        <v>2663979.415599089</v>
       </c>
       <c r="H25" t="n">
-        <v>1917728.159237582</v>
+        <v>5450747.699691266</v>
       </c>
       <c r="I25" t="n">
-        <v>1942758.049241037</v>
+        <v>2604739.846230298</v>
       </c>
       <c r="J25" t="n">
-        <v>960902.633067549</v>
+        <v>2302550.655499065</v>
       </c>
       <c r="K25" t="n">
-        <v>1979395.258780539</v>
+        <v>2394444.177134736</v>
       </c>
       <c r="L25" t="n">
-        <v>1697836.010229962</v>
+        <v>973565.9898601985</v>
       </c>
       <c r="M25" t="n">
-        <v>1747202.116931278</v>
+        <v>-426116.3292980585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13807480.23909786</v>
+        <v>11887489.80548606</v>
       </c>
       <c r="C26" t="n">
-        <v>15837106.26912825</v>
+        <v>8699503.629953444</v>
       </c>
       <c r="D26" t="n">
-        <v>19860552.53831039</v>
+        <v>7578481.022695226</v>
       </c>
       <c r="E26" t="n">
-        <v>22032422.28488017</v>
+        <v>10813448.03927298</v>
       </c>
       <c r="F26" t="n">
-        <v>24145302.50669076</v>
+        <v>7026921.647457725</v>
       </c>
       <c r="G26" t="n">
-        <v>26019008.49378213</v>
+        <v>4096835.758460438</v>
       </c>
       <c r="H26" t="n">
-        <v>26636922.49874205</v>
+        <v>5130228.638532393</v>
       </c>
       <c r="I26" t="n">
-        <v>26801115.7847429</v>
+        <v>6249067.137577517</v>
       </c>
       <c r="J26" t="n">
-        <v>23846018.42471235</v>
+        <v>5963378.724362377</v>
       </c>
       <c r="K26" t="n">
-        <v>25303366.95898079</v>
+        <v>7644019.215386044</v>
       </c>
       <c r="L26" t="n">
-        <v>30977161.77206838</v>
+        <v>6704190.147275982</v>
       </c>
       <c r="M26" t="n">
-        <v>28454236.59071488</v>
+        <v>339049.6113527734</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5600987.323720105</v>
+        <v>1796258.051027311</v>
       </c>
       <c r="C27" t="n">
-        <v>-1777032.749634626</v>
+        <v>1565729.513334117</v>
       </c>
       <c r="D27" t="n">
-        <v>6342933.658845412</v>
+        <v>-985409.6650942862</v>
       </c>
       <c r="E27" t="n">
-        <v>5396200.693312487</v>
+        <v>-1316951.182858321</v>
       </c>
       <c r="F27" t="n">
-        <v>12024189.83185489</v>
+        <v>-3521929.679765899</v>
       </c>
       <c r="G27" t="n">
-        <v>13073162.26811905</v>
+        <v>-3597525.833008891</v>
       </c>
       <c r="H27" t="n">
-        <v>12400044.10295013</v>
+        <v>-4071256.082908618</v>
       </c>
       <c r="I27" t="n">
-        <v>16640157.00529941</v>
+        <v>-5153991.475929623</v>
       </c>
       <c r="J27" t="n">
-        <v>6219050.234337682</v>
+        <v>-6752713.544217785</v>
       </c>
       <c r="K27" t="n">
-        <v>28137979.62962274</v>
+        <v>-5778870.459995797</v>
       </c>
       <c r="L27" t="n">
-        <v>15659917.40452401</v>
+        <v>-5402933.63180619</v>
       </c>
       <c r="M27" t="n">
-        <v>17071978.33047578</v>
+        <v>-9847971.31253114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18271264.07519491</v>
+        <v>9607805.940331474</v>
       </c>
       <c r="C28" t="n">
-        <v>20554848.60268723</v>
+        <v>9961187.945543557</v>
       </c>
       <c r="D28" t="n">
-        <v>24504730.22580983</v>
+        <v>6528373.202324539</v>
       </c>
       <c r="E28" t="n">
-        <v>29550914.13023526</v>
+        <v>3818135.827876396</v>
       </c>
       <c r="F28" t="n">
-        <v>31864721.30783711</v>
+        <v>5901887.072549747</v>
       </c>
       <c r="G28" t="n">
-        <v>33734975.51234648</v>
+        <v>7665751.038907241</v>
       </c>
       <c r="H28" t="n">
-        <v>41495017.51848088</v>
+        <v>8151018.720966921</v>
       </c>
       <c r="I28" t="n">
-        <v>39963139.64231859</v>
+        <v>5418452.35414257</v>
       </c>
       <c r="J28" t="n">
-        <v>36928625.05812851</v>
+        <v>4845534.834966594</v>
       </c>
       <c r="K28" t="n">
-        <v>38998996.38546573</v>
+        <v>1940991.669992136</v>
       </c>
       <c r="L28" t="n">
-        <v>41312863.06439835</v>
+        <v>2874484.90498933</v>
       </c>
       <c r="M28" t="n">
-        <v>44645022.37318268</v>
+        <v>1620405.854019997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21389943.9916302</v>
+        <v>1847209.794869407</v>
       </c>
       <c r="C29" t="n">
-        <v>24876220.19744492</v>
+        <v>2507554.928231154</v>
       </c>
       <c r="D29" t="n">
-        <v>24663533.24458274</v>
+        <v>2919487.070605645</v>
       </c>
       <c r="E29" t="n">
-        <v>28023175.2337128</v>
+        <v>2867267.679641994</v>
       </c>
       <c r="F29" t="n">
-        <v>28705693.90125186</v>
+        <v>3506377.431684785</v>
       </c>
       <c r="G29" t="n">
-        <v>33649965.4073862</v>
+        <v>3406593.073401803</v>
       </c>
       <c r="H29" t="n">
-        <v>35856549.43198434</v>
+        <v>2981573.103500161</v>
       </c>
       <c r="I29" t="n">
-        <v>38786867.72763819</v>
+        <v>3136689.641468251</v>
       </c>
       <c r="J29" t="n">
-        <v>42955070.05760702</v>
+        <v>2892566.460130453</v>
       </c>
       <c r="K29" t="n">
-        <v>51970284.18657912</v>
+        <v>2936447.193081268</v>
       </c>
       <c r="L29" t="n">
-        <v>52996664.10040434</v>
+        <v>2255444.648333081</v>
       </c>
       <c r="M29" t="n">
-        <v>50862769.50830054</v>
+        <v>2721364.925825052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32505920.00925128</v>
+        <v>241748.3331787724</v>
       </c>
       <c r="C30" t="n">
-        <v>32554504.43382121</v>
+        <v>-150878.3585361351</v>
       </c>
       <c r="D30" t="n">
-        <v>25652804.05784171</v>
+        <v>413381.572927251</v>
       </c>
       <c r="E30" t="n">
-        <v>38169406.18947418</v>
+        <v>-246419.4491538613</v>
       </c>
       <c r="F30" t="n">
-        <v>37743814.42932393</v>
+        <v>-630669.9011614295</v>
       </c>
       <c r="G30" t="n">
-        <v>40912797.74285051</v>
+        <v>-235326.9352397921</v>
       </c>
       <c r="H30" t="n">
-        <v>43698690.07688263</v>
+        <v>-497810.7039611819</v>
       </c>
       <c r="I30" t="n">
-        <v>36558385.02067347</v>
+        <v>-923955.2468601534</v>
       </c>
       <c r="J30" t="n">
-        <v>40114425.19302444</v>
+        <v>-1047658.420347026</v>
       </c>
       <c r="K30" t="n">
-        <v>56239755.12180896</v>
+        <v>-1172107.763687829</v>
       </c>
       <c r="L30" t="n">
-        <v>55176549.64045899</v>
+        <v>2273.800821445882</v>
       </c>
       <c r="M30" t="n">
-        <v>37267583.39700413</v>
+        <v>-1414114.669963383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34447290.67256548</v>
+        <v>2718507.646033677</v>
       </c>
       <c r="C31" t="n">
-        <v>34097531.92375785</v>
+        <v>3185741.039995287</v>
       </c>
       <c r="D31" t="n">
-        <v>30844260.2778867</v>
+        <v>2523434.316559944</v>
       </c>
       <c r="E31" t="n">
-        <v>31555705.85240209</v>
+        <v>2860314.972394917</v>
       </c>
       <c r="F31" t="n">
-        <v>30458196.41705554</v>
+        <v>3075304.456796784</v>
       </c>
       <c r="G31" t="n">
-        <v>30357831.1619298</v>
+        <v>2883734.181134339</v>
       </c>
       <c r="H31" t="n">
-        <v>32479474.19912143</v>
+        <v>3351886.259699224</v>
       </c>
       <c r="I31" t="n">
-        <v>35891938.26853897</v>
+        <v>3595675.373637929</v>
       </c>
       <c r="J31" t="n">
-        <v>38215228.15498012</v>
+        <v>4312469.023409398</v>
       </c>
       <c r="K31" t="n">
-        <v>22751453.52595598</v>
+        <v>4368245.405767825</v>
       </c>
       <c r="L31" t="n">
-        <v>22340286.71988637</v>
+        <v>5956668.515648084</v>
       </c>
       <c r="M31" t="n">
-        <v>15606664.63952252</v>
+        <v>8409393.823742626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1953141.340078042</v>
+        <v>1146661.492266244</v>
       </c>
       <c r="C32" t="n">
-        <v>2357261.408629242</v>
+        <v>1642579.215950617</v>
       </c>
       <c r="D32" t="n">
-        <v>2714731.738758838</v>
+        <v>1756777.444663879</v>
       </c>
       <c r="E32" t="n">
-        <v>2944973.075488225</v>
+        <v>1399297.80412122</v>
       </c>
       <c r="F32" t="n">
-        <v>3130883.201440506</v>
+        <v>1402342.012574086</v>
       </c>
       <c r="G32" t="n">
-        <v>3925983.612344003</v>
+        <v>1668021.867265308</v>
       </c>
       <c r="H32" t="n">
-        <v>5141779.60027608</v>
+        <v>1606388.764248762</v>
       </c>
       <c r="I32" t="n">
-        <v>4442832.267192988</v>
+        <v>1470080.887549405</v>
       </c>
       <c r="J32" t="n">
-        <v>4890141.077851024</v>
+        <v>1465296.994014189</v>
       </c>
       <c r="K32" t="n">
-        <v>4896146.901353475</v>
+        <v>817400.1473424814</v>
       </c>
       <c r="L32" t="n">
-        <v>5448664.980983293</v>
+        <v>1385351.393714931</v>
       </c>
       <c r="M32" t="n">
-        <v>6293209.017267335</v>
+        <v>532970.3868447872</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4664254.234167215</v>
+        <v>2485408.411654013</v>
       </c>
       <c r="C33" t="n">
-        <v>4072526.283842621</v>
+        <v>3069655.869797788</v>
       </c>
       <c r="D33" t="n">
-        <v>5946266.719438128</v>
+        <v>3284595.783721731</v>
       </c>
       <c r="E33" t="n">
-        <v>5699743.39546729</v>
+        <v>2678383.27458704</v>
       </c>
       <c r="F33" t="n">
-        <v>3508143.402750789</v>
+        <v>2878986.851284489</v>
       </c>
       <c r="G33" t="n">
-        <v>4482091.085486772</v>
+        <v>3100100.159546165</v>
       </c>
       <c r="H33" t="n">
-        <v>3257216.077326635</v>
+        <v>2768731.626230232</v>
       </c>
       <c r="I33" t="n">
-        <v>6054820.068111142</v>
+        <v>3514041.559346674</v>
       </c>
       <c r="J33" t="n">
-        <v>6251128.529800126</v>
+        <v>2282664.028587295</v>
       </c>
       <c r="K33" t="n">
-        <v>6022159.001606247</v>
+        <v>2141128.535622428</v>
       </c>
       <c r="L33" t="n">
-        <v>7831473.088772707</v>
+        <v>3252410.926294407</v>
       </c>
       <c r="M33" t="n">
-        <v>8002790.081905686</v>
+        <v>3242918.183374108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8828124.11816908</v>
+        <v>2054434.23012102</v>
       </c>
       <c r="C34" t="n">
-        <v>5473061.426103845</v>
+        <v>2269952.576776637</v>
       </c>
       <c r="D34" t="n">
-        <v>2995490.434155516</v>
+        <v>2053376.554141258</v>
       </c>
       <c r="E34" t="n">
-        <v>9672160.043598868</v>
+        <v>3059288.073110973</v>
       </c>
       <c r="F34" t="n">
-        <v>6827820.280252073</v>
+        <v>2971269.533919027</v>
       </c>
       <c r="G34" t="n">
-        <v>6505647.188522445</v>
+        <v>2205727.56125937</v>
       </c>
       <c r="H34" t="n">
-        <v>7170268.503308444</v>
+        <v>2062794.138320926</v>
       </c>
       <c r="I34" t="n">
-        <v>3575774.039293866</v>
+        <v>4368532.647430418</v>
       </c>
       <c r="J34" t="n">
-        <v>9449096.251925576</v>
+        <v>3069743.056218999</v>
       </c>
       <c r="K34" t="n">
-        <v>8107056.285445958</v>
+        <v>3183732.763209197</v>
       </c>
       <c r="L34" t="n">
-        <v>10442709.98929838</v>
+        <v>2999405.52610656</v>
       </c>
       <c r="M34" t="n">
-        <v>9605189.576653931</v>
+        <v>2173884.408965648</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4011059.446036479</v>
+        <v>1218970.773328023</v>
       </c>
       <c r="C35" t="n">
-        <v>6797006.629529864</v>
+        <v>2288703.386180774</v>
       </c>
       <c r="D35" t="n">
-        <v>4273122.332796742</v>
+        <v>1479098.207739034</v>
       </c>
       <c r="E35" t="n">
-        <v>4776080.863427678</v>
+        <v>1250788.732272213</v>
       </c>
       <c r="F35" t="n">
-        <v>4375157.111000098</v>
+        <v>960792.2000765603</v>
       </c>
       <c r="G35" t="n">
-        <v>4134258.8222637</v>
+        <v>2125298.190358914</v>
       </c>
       <c r="H35" t="n">
-        <v>5118286.9091205</v>
+        <v>1584866.398477806</v>
       </c>
       <c r="I35" t="n">
-        <v>5093920.686521768</v>
+        <v>1708903.418209197</v>
       </c>
       <c r="J35" t="n">
-        <v>3776136.161880057</v>
+        <v>1212325.645826655</v>
       </c>
       <c r="K35" t="n">
-        <v>5494365.980549973</v>
+        <v>203230.1460696403</v>
       </c>
       <c r="L35" t="n">
-        <v>5049938.606126573</v>
+        <v>966055.2218989766</v>
       </c>
       <c r="M35" t="n">
-        <v>4765951.793549744</v>
+        <v>-228558.399072662</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2654119.548471001</v>
+        <v>1419648.157012181</v>
       </c>
       <c r="C36" t="n">
-        <v>3639583.333862598</v>
+        <v>851460.8871927175</v>
       </c>
       <c r="D36" t="n">
-        <v>2732426.145351134</v>
+        <v>1211471.173693873</v>
       </c>
       <c r="E36" t="n">
-        <v>4267455.429108657</v>
+        <v>800587.5124104233</v>
       </c>
       <c r="F36" t="n">
-        <v>5662280.84277472</v>
+        <v>906907.6689681034</v>
       </c>
       <c r="G36" t="n">
-        <v>3587625.634845753</v>
+        <v>609981.0082585751</v>
       </c>
       <c r="H36" t="n">
-        <v>4703943.351944027</v>
+        <v>206468.8942066773</v>
       </c>
       <c r="I36" t="n">
-        <v>3634403.874680432</v>
+        <v>39525.30813556036</v>
       </c>
       <c r="J36" t="n">
-        <v>4755080.991255971</v>
+        <v>55710.30477433326</v>
       </c>
       <c r="K36" t="n">
-        <v>4966253.595475933</v>
+        <v>-440652.7008695682</v>
       </c>
       <c r="L36" t="n">
-        <v>5974324.497191451</v>
+        <v>-727422.2781888045</v>
       </c>
       <c r="M36" t="n">
-        <v>4912338.185501665</v>
+        <v>-441296.9551815044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3448367.8504362</v>
+        <v>2312471.21368548</v>
       </c>
       <c r="C37" t="n">
-        <v>5414181.962942554</v>
+        <v>3258056.747780444</v>
       </c>
       <c r="D37" t="n">
-        <v>7627557.502851582</v>
+        <v>3471082.215836061</v>
       </c>
       <c r="E37" t="n">
-        <v>4156748.6236696</v>
+        <v>2738602.886320982</v>
       </c>
       <c r="F37" t="n">
-        <v>3268788.452856971</v>
+        <v>1494357.913770529</v>
       </c>
       <c r="G37" t="n">
-        <v>2779322.435764494</v>
+        <v>2880979.661327827</v>
       </c>
       <c r="H37" t="n">
-        <v>6295334.589701099</v>
+        <v>3444674.166347872</v>
       </c>
       <c r="I37" t="n">
-        <v>8405756.561073128</v>
+        <v>2475984.64060047</v>
       </c>
       <c r="J37" t="n">
-        <v>5065346.866982989</v>
+        <v>2759207.149511122</v>
       </c>
       <c r="K37" t="n">
-        <v>7548901.89971302</v>
+        <v>2092117.527476485</v>
       </c>
       <c r="L37" t="n">
-        <v>6586379.431698043</v>
+        <v>906731.7834391494</v>
       </c>
       <c r="M37" t="n">
-        <v>4994266.571678486</v>
+        <v>1204428.461351999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-697159.3281287169</v>
+        <v>4422478.552675282</v>
       </c>
       <c r="C38" t="n">
-        <v>1305902.325100228</v>
+        <v>3395832.286609561</v>
       </c>
       <c r="D38" t="n">
-        <v>2984957.253830428</v>
+        <v>4149530.090785801</v>
       </c>
       <c r="E38" t="n">
-        <v>-2640611.504400952</v>
+        <v>5136496.585712013</v>
       </c>
       <c r="F38" t="n">
-        <v>-2208239.138908651</v>
+        <v>4325702.324123044</v>
       </c>
       <c r="G38" t="n">
-        <v>-2449923.620117731</v>
+        <v>5082158.976279693</v>
       </c>
       <c r="H38" t="n">
-        <v>-3827081.655615205</v>
+        <v>5126717.323761549</v>
       </c>
       <c r="I38" t="n">
-        <v>-3705242.317627243</v>
+        <v>6622109.058867268</v>
       </c>
       <c r="J38" t="n">
-        <v>-3615119.723503631</v>
+        <v>6279707.491049352</v>
       </c>
       <c r="K38" t="n">
-        <v>-3696298.404234471</v>
+        <v>4751289.943911562</v>
       </c>
       <c r="L38" t="n">
-        <v>-4662602.89174524</v>
+        <v>6123699.158626035</v>
       </c>
       <c r="M38" t="n">
-        <v>-6742929.911551524</v>
+        <v>3961311.208812899</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5151971.000393693</v>
+        <v>3635339.157118643</v>
       </c>
       <c r="C39" t="n">
-        <v>4539666.925049863</v>
+        <v>5167662.37626044</v>
       </c>
       <c r="D39" t="n">
-        <v>5951491.842050982</v>
+        <v>5152496.769123263</v>
       </c>
       <c r="E39" t="n">
-        <v>6858070.295364888</v>
+        <v>5209985.984536533</v>
       </c>
       <c r="F39" t="n">
-        <v>6674858.617214188</v>
+        <v>4927013.593842228</v>
       </c>
       <c r="G39" t="n">
-        <v>7710712.104671971</v>
+        <v>4808595.962484888</v>
       </c>
       <c r="H39" t="n">
-        <v>7490242.907179195</v>
+        <v>5696256.26253652</v>
       </c>
       <c r="I39" t="n">
-        <v>7115702.895945082</v>
+        <v>3703228.361126389</v>
       </c>
       <c r="J39" t="n">
-        <v>5957704.5065032</v>
+        <v>5814281.430733657</v>
       </c>
       <c r="K39" t="n">
-        <v>5859364.083482566</v>
+        <v>3142978.572086525</v>
       </c>
       <c r="L39" t="n">
-        <v>8649635.029829774</v>
+        <v>3672678.117905228</v>
       </c>
       <c r="M39" t="n">
-        <v>10358712.10519089</v>
+        <v>2651436.686119748</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10106051.20650538</v>
+        <v>2763069.113187933</v>
       </c>
       <c r="C40" t="n">
-        <v>6725938.134951744</v>
+        <v>4779893.737021933</v>
       </c>
       <c r="D40" t="n">
-        <v>11503501.06832853</v>
+        <v>3452571.839727263</v>
       </c>
       <c r="E40" t="n">
-        <v>12744937.21262737</v>
+        <v>3662884.902434228</v>
       </c>
       <c r="F40" t="n">
-        <v>11943313.19307033</v>
+        <v>3566886.657984075</v>
       </c>
       <c r="G40" t="n">
-        <v>16573624.64710427</v>
+        <v>2809747.863601917</v>
       </c>
       <c r="H40" t="n">
-        <v>12404225.36641454</v>
+        <v>2449504.881753549</v>
       </c>
       <c r="I40" t="n">
-        <v>11842467.01229103</v>
+        <v>2309556.414419361</v>
       </c>
       <c r="J40" t="n">
-        <v>17994851.90446155</v>
+        <v>2573999.675709368</v>
       </c>
       <c r="K40" t="n">
-        <v>12623810.258935</v>
+        <v>1751366.49651713</v>
       </c>
       <c r="L40" t="n">
-        <v>15622124.34557781</v>
+        <v>2157809.174451034</v>
       </c>
       <c r="M40" t="n">
-        <v>11670764.2939334</v>
+        <v>588683.4905236183</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-245099.3891617339</v>
+        <v>206842.1250732504</v>
       </c>
       <c r="C41" t="n">
-        <v>5369825.779171319</v>
+        <v>1449201.799900403</v>
       </c>
       <c r="D41" t="n">
-        <v>5141483.422533442</v>
+        <v>1796075.767310864</v>
       </c>
       <c r="E41" t="n">
-        <v>6149209.031459097</v>
+        <v>526212.8623159439</v>
       </c>
       <c r="F41" t="n">
-        <v>7824503.252634937</v>
+        <v>277033.3460408156</v>
       </c>
       <c r="G41" t="n">
-        <v>4777234.888174344</v>
+        <v>599818.1669029882</v>
       </c>
       <c r="H41" t="n">
-        <v>5611900.466250435</v>
+        <v>92655.92872371292</v>
       </c>
       <c r="I41" t="n">
-        <v>3102652.105943692</v>
+        <v>1032710.016760742</v>
       </c>
       <c r="J41" t="n">
-        <v>3077995.890449464</v>
+        <v>496819.1806856229</v>
       </c>
       <c r="K41" t="n">
-        <v>1076316.705248179</v>
+        <v>-361382.9630740315</v>
       </c>
       <c r="L41" t="n">
-        <v>4521038.776607042</v>
+        <v>872449.5955710558</v>
       </c>
       <c r="M41" t="n">
-        <v>-134447.9213514198</v>
+        <v>-325490.4657907533</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4836441.396346953</v>
+        <v>2671499.475460947</v>
       </c>
       <c r="C42" t="n">
-        <v>7780459.180789709</v>
+        <v>2150860.107098403</v>
       </c>
       <c r="D42" t="n">
-        <v>9026464.836019976</v>
+        <v>2435735.424311738</v>
       </c>
       <c r="E42" t="n">
-        <v>9373019.323080275</v>
+        <v>2516712.68629866</v>
       </c>
       <c r="F42" t="n">
-        <v>5259864.400591932</v>
+        <v>2163319.190154225</v>
       </c>
       <c r="G42" t="n">
-        <v>6377388.3023721</v>
+        <v>1291404.678826031</v>
       </c>
       <c r="H42" t="n">
-        <v>8078678.716587519</v>
+        <v>2653365.292062711</v>
       </c>
       <c r="I42" t="n">
-        <v>4534321.424809003</v>
+        <v>3149454.836430294</v>
       </c>
       <c r="J42" t="n">
-        <v>5303903.350867024</v>
+        <v>1509084.413305634</v>
       </c>
       <c r="K42" t="n">
-        <v>5411903.515119892</v>
+        <v>1625087.588950559</v>
       </c>
       <c r="L42" t="n">
-        <v>11709857.93003725</v>
+        <v>1083526.622574229</v>
       </c>
       <c r="M42" t="n">
-        <v>8865657.556167703</v>
+        <v>-696061.1184853795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-605153.9770815335</v>
+        <v>1396647.572783539</v>
       </c>
       <c r="C43" t="n">
-        <v>472189.0766121028</v>
+        <v>2739329.713777411</v>
       </c>
       <c r="D43" t="n">
-        <v>296349.0800849507</v>
+        <v>3022449.452802126</v>
       </c>
       <c r="E43" t="n">
-        <v>210350.5564648029</v>
+        <v>2597962.237007686</v>
       </c>
       <c r="F43" t="n">
-        <v>-1601243.296192457</v>
+        <v>2398879.453633282</v>
       </c>
       <c r="G43" t="n">
-        <v>-1582214.771126786</v>
+        <v>2327980.693121151</v>
       </c>
       <c r="H43" t="n">
-        <v>-2372260.142476195</v>
+        <v>2155552.092483426</v>
       </c>
       <c r="I43" t="n">
-        <v>47476.54190603923</v>
+        <v>1592038.458173637</v>
       </c>
       <c r="J43" t="n">
-        <v>-3339266.20153114</v>
+        <v>2272731.677270643</v>
       </c>
       <c r="K43" t="n">
-        <v>-3970088.754904623</v>
+        <v>1431660.24972484</v>
       </c>
       <c r="L43" t="n">
-        <v>-4252830.140469599</v>
+        <v>2506379.49973015</v>
       </c>
       <c r="M43" t="n">
-        <v>-5898593.783496046</v>
+        <v>763429.6198992077</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10738210.30664293</v>
+        <v>3980627.374093442</v>
       </c>
       <c r="C44" t="n">
-        <v>18062249.74286655</v>
+        <v>6641178.076789252</v>
       </c>
       <c r="D44" t="n">
-        <v>13645944.06542934</v>
+        <v>4318542.880910444</v>
       </c>
       <c r="E44" t="n">
-        <v>10515099.61340199</v>
+        <v>3513279.92827969</v>
       </c>
       <c r="F44" t="n">
-        <v>13763349.40480338</v>
+        <v>3505356.137740135</v>
       </c>
       <c r="G44" t="n">
-        <v>11265579.82868942</v>
+        <v>4693998.080952874</v>
       </c>
       <c r="H44" t="n">
-        <v>10600350.3014284</v>
+        <v>3699773.587459067</v>
       </c>
       <c r="I44" t="n">
-        <v>12290301.13877036</v>
+        <v>3956550.395112227</v>
       </c>
       <c r="J44" t="n">
-        <v>14269317.8562598</v>
+        <v>2510217.754715563</v>
       </c>
       <c r="K44" t="n">
-        <v>13942702.05945999</v>
+        <v>3343960.18012159</v>
       </c>
       <c r="L44" t="n">
-        <v>15160124.66376315</v>
+        <v>3831320.027648994</v>
       </c>
       <c r="M44" t="n">
-        <v>15506833.93344063</v>
+        <v>1908985.567488316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1473624.5140392</v>
+        <v>1847656.918585214</v>
       </c>
       <c r="C45" t="n">
-        <v>2040740.254269205</v>
+        <v>2441467.813445637</v>
       </c>
       <c r="D45" t="n">
-        <v>1876962.646096831</v>
+        <v>2898567.527824919</v>
       </c>
       <c r="E45" t="n">
-        <v>-541863.0116152922</v>
+        <v>2699920.301932784</v>
       </c>
       <c r="F45" t="n">
-        <v>-714026.4655894785</v>
+        <v>1764224.362895609</v>
       </c>
       <c r="G45" t="n">
-        <v>-2654087.543332393</v>
+        <v>2057082.776396058</v>
       </c>
       <c r="H45" t="n">
-        <v>-2527931.434047236</v>
+        <v>2017040.941785693</v>
       </c>
       <c r="I45" t="n">
-        <v>-3087118.341148803</v>
+        <v>2038881.554180075</v>
       </c>
       <c r="J45" t="n">
-        <v>-3906289.589451352</v>
+        <v>1600612.280543692</v>
       </c>
       <c r="K45" t="n">
-        <v>-5368167.623538133</v>
+        <v>798192.1785625136</v>
       </c>
       <c r="L45" t="n">
-        <v>-4323983.565474683</v>
+        <v>1720272.106198221</v>
       </c>
       <c r="M45" t="n">
-        <v>-3496559.861019792</v>
+        <v>279052.3826120906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11185268.09800043</v>
+        <v>1070464.262753915</v>
       </c>
       <c r="C46" t="n">
-        <v>14517639.76441903</v>
+        <v>2609161.513236022</v>
       </c>
       <c r="D46" t="n">
-        <v>14975936.25712193</v>
+        <v>1110690.578001792</v>
       </c>
       <c r="E46" t="n">
-        <v>11386589.23742297</v>
+        <v>916492.9584518173</v>
       </c>
       <c r="F46" t="n">
-        <v>9075285.201057144</v>
+        <v>985814.3086241672</v>
       </c>
       <c r="G46" t="n">
-        <v>11268971.24630626</v>
+        <v>895192.253092549</v>
       </c>
       <c r="H46" t="n">
-        <v>13802163.67698858</v>
+        <v>578845.3794972869</v>
       </c>
       <c r="I46" t="n">
-        <v>13685299.90808949</v>
+        <v>2759923.396669586</v>
       </c>
       <c r="J46" t="n">
-        <v>11836381.83178861</v>
+        <v>1673363.249198427</v>
       </c>
       <c r="K46" t="n">
-        <v>11562968.14262897</v>
+        <v>421147.1789901814</v>
       </c>
       <c r="L46" t="n">
-        <v>8556996.095463224</v>
+        <v>544950.0423034802</v>
       </c>
       <c r="M46" t="n">
-        <v>9446540.993986873</v>
+        <v>-317345.9957966669</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2118005.19347178</v>
+        <v>1736037.764141814</v>
       </c>
       <c r="C47" t="n">
-        <v>2238685.982064915</v>
+        <v>2088798.297350571</v>
       </c>
       <c r="D47" t="n">
-        <v>3024367.604998501</v>
+        <v>3163730.14504378</v>
       </c>
       <c r="E47" t="n">
-        <v>3445982.338457735</v>
+        <v>3868518.453905058</v>
       </c>
       <c r="F47" t="n">
-        <v>3504412.067316644</v>
+        <v>3229505.617068435</v>
       </c>
       <c r="G47" t="n">
-        <v>4156915.17849691</v>
+        <v>3718099.761404084</v>
       </c>
       <c r="H47" t="n">
-        <v>4163055.329391948</v>
+        <v>3507486.86674157</v>
       </c>
       <c r="I47" t="n">
-        <v>3747007.086267348</v>
+        <v>3766861.672656694</v>
       </c>
       <c r="J47" t="n">
-        <v>3993158.725396507</v>
+        <v>4295805.784424547</v>
       </c>
       <c r="K47" t="n">
-        <v>3811339.488938125</v>
+        <v>3501898.788570073</v>
       </c>
       <c r="L47" t="n">
-        <v>3936056.612189069</v>
+        <v>3572297.173696874</v>
       </c>
       <c r="M47" t="n">
-        <v>3292734.597144437</v>
+        <v>3696856.495643128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>254323.4048803998</v>
+        <v>3619797.203110075</v>
       </c>
       <c r="C48" t="n">
-        <v>187956.5660326264</v>
+        <v>4086892.007523096</v>
       </c>
       <c r="D48" t="n">
-        <v>-226856.2300059085</v>
+        <v>4706986.003620266</v>
       </c>
       <c r="E48" t="n">
-        <v>313565.7497176228</v>
+        <v>2896967.769223619</v>
       </c>
       <c r="F48" t="n">
-        <v>-372403.9486067269</v>
+        <v>2220655.578660695</v>
       </c>
       <c r="G48" t="n">
-        <v>-782878.0007666582</v>
+        <v>2798192.7377618</v>
       </c>
       <c r="H48" t="n">
-        <v>-414034.4562513387</v>
+        <v>1211025.265717235</v>
       </c>
       <c r="I48" t="n">
-        <v>-701113.3807154696</v>
+        <v>1520327.355420427</v>
       </c>
       <c r="J48" t="n">
-        <v>-1152845.336254167</v>
+        <v>2656782.260732728</v>
       </c>
       <c r="K48" t="n">
-        <v>-1299879.207315762</v>
+        <v>-175774.4989053821</v>
       </c>
       <c r="L48" t="n">
-        <v>-1450270.819543517</v>
+        <v>497633.7654761929</v>
       </c>
       <c r="M48" t="n">
-        <v>-298222.2968710982</v>
+        <v>-1558319.601646122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>448909.131641719</v>
+        <v>1044501.830862996</v>
       </c>
       <c r="C49" t="n">
-        <v>419452.952431547</v>
+        <v>1243362.811948718</v>
       </c>
       <c r="D49" t="n">
-        <v>910491.9823349045</v>
+        <v>1317558.631847109</v>
       </c>
       <c r="E49" t="n">
-        <v>684446.8657068235</v>
+        <v>959302.2961648889</v>
       </c>
       <c r="F49" t="n">
-        <v>404554.5484942072</v>
+        <v>1223506.500161434</v>
       </c>
       <c r="G49" t="n">
-        <v>768289.490001414</v>
+        <v>1063102.459814559</v>
       </c>
       <c r="H49" t="n">
-        <v>501596.5633409236</v>
+        <v>1191257.844019488</v>
       </c>
       <c r="I49" t="n">
-        <v>637567.7497713466</v>
+        <v>1743089.400134642</v>
       </c>
       <c r="J49" t="n">
-        <v>917217.1838990566</v>
+        <v>1831653.664402303</v>
       </c>
       <c r="K49" t="n">
-        <v>1015726.22772704</v>
+        <v>1159846.13488299</v>
       </c>
       <c r="L49" t="n">
-        <v>1077954.489840217</v>
+        <v>1670968.938494914</v>
       </c>
       <c r="M49" t="n">
-        <v>1473429.524730897</v>
+        <v>1253382.816708289</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>958498.1099882075</v>
+        <v>2738909.95740306</v>
       </c>
       <c r="C50" t="n">
-        <v>1122938.882093241</v>
+        <v>2989005.140018986</v>
       </c>
       <c r="D50" t="n">
-        <v>1451364.144746822</v>
+        <v>3364487.494571925</v>
       </c>
       <c r="E50" t="n">
-        <v>1622467.934442841</v>
+        <v>2486745.505880418</v>
       </c>
       <c r="F50" t="n">
-        <v>1202927.039864713</v>
+        <v>3644651.953973207</v>
       </c>
       <c r="G50" t="n">
-        <v>1207513.610811881</v>
+        <v>3151208.875481246</v>
       </c>
       <c r="H50" t="n">
-        <v>1452453.056458074</v>
+        <v>3411711.492987059</v>
       </c>
       <c r="I50" t="n">
-        <v>1376024.777776428</v>
+        <v>3221408.893133035</v>
       </c>
       <c r="J50" t="n">
-        <v>1216984.704743951</v>
+        <v>3301498.04052769</v>
       </c>
       <c r="K50" t="n">
-        <v>1193132.261751974</v>
+        <v>2841447.106408578</v>
       </c>
       <c r="L50" t="n">
-        <v>510193.4366679931</v>
+        <v>2872637.695544071</v>
       </c>
       <c r="M50" t="n">
-        <v>1084672.47815979</v>
+        <v>2371001.293995171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2930907.48977279</v>
+        <v>3594192.977872837</v>
       </c>
       <c r="C51" t="n">
-        <v>2662369.257922685</v>
+        <v>3532852.046688558</v>
       </c>
       <c r="D51" t="n">
-        <v>3263161.920829187</v>
+        <v>4032567.431757165</v>
       </c>
       <c r="E51" t="n">
-        <v>3519249.284546529</v>
+        <v>3723232.973131305</v>
       </c>
       <c r="F51" t="n">
-        <v>2928832.752832787</v>
+        <v>3711899.850359013</v>
       </c>
       <c r="G51" t="n">
-        <v>3210493.520837425</v>
+        <v>3875612.990529439</v>
       </c>
       <c r="H51" t="n">
-        <v>3453743.892089179</v>
+        <v>4012466.314354925</v>
       </c>
       <c r="I51" t="n">
-        <v>3196050.001214902</v>
+        <v>5132873.374596523</v>
       </c>
       <c r="J51" t="n">
-        <v>3947185.239448767</v>
+        <v>5081322.334807145</v>
       </c>
       <c r="K51" t="n">
-        <v>2788363.41574814</v>
+        <v>5096904.325063142</v>
       </c>
       <c r="L51" t="n">
-        <v>2650768.754968682</v>
+        <v>4848957.914001478</v>
       </c>
       <c r="M51" t="n">
-        <v>3784750.568100852</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3363926.339485969</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3104111.267959865</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3249379.069144341</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3697742.122897814</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4314880.188998824</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4323332.240094272</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3819624.608126088</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4198777.310325758</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5421259.049908904</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5187275.986242653</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5280916.198397483</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5684727.216336826</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1507353.719909982</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1803850.088376067</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2928125.60680284</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2153493.995122993</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1984669.868796112</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1731646.656981603</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2934581.618990915</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2436611.191674774</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2622545.649696963</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2182487.066289425</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1232671.942057259</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2018214.587124952</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>601425.6443590454</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1373426.542841039</v>
-      </c>
-      <c r="D54" t="n">
-        <v>790166.3892223528</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1129878.24376852</v>
-      </c>
-      <c r="F54" t="n">
-        <v>696581.4428931184</v>
-      </c>
-      <c r="G54" t="n">
-        <v>784919.7813294519</v>
-      </c>
-      <c r="H54" t="n">
-        <v>477281.8462302707</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59979.92241888843</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-118067.9511413326</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-123178.4624393757</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-639514.6051790465</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-943702.5721149808</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2629433.531507487</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2208097.921954922</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3321010.241388025</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3528828.580895607</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2738417.580647837</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1585903.739283502</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2865555.796987608</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3460401.339661666</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2482282.968430083</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2870032.166012377</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2174595.72743586</v>
-      </c>
-      <c r="M55" t="n">
-        <v>998217.297627477</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3198167.192028766</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4512287.197120702</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3479217.887733352</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4251421.304672093</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5288768.450521463</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4455069.865417065</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5274915.39246903</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5350978.553058794</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6869586.698434984</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6489585.927424828</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4995643.826226356</v>
-      </c>
-      <c r="M56" t="n">
-        <v>6370702.774262476</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3843943.172142488</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3745538.899452938</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5219556.992566327</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5270701.341559181</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5331038.614738792</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5040979.351070997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4996878.039378348</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5893560.099232546</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3964037.518672013</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6097974.100878476</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3451786.243338879</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4028431.961617377</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2622491.523503171</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2720493.44598469</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4462865.30190098</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3203090.952594028</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3157725.234372244</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3179746.762601539</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2355637.800234229</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2002110.344262699</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1893632.20225034</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2049245.724145411</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1268808.06558413</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1560165.882673115</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3397442.799469537</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1833982.034131981</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2991734.719171266</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3734079.710526444</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2477775.485751492</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2828916.605607987</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2714796.684213014</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2390086.822502952</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3392175.078411999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3051257.065743173</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2077305.718003255</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3219199.145597207</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2089615.561135807</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2627328.95456456</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2159669.654431264</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2448845.795722108</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2520321.387291545</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2169457.958966138</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1328151.662598086</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2646376.646004803</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3102747.656866719</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1572214.197593077</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1610414.793673628</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1073465.313757631</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>368416.5204699999</v>
-      </c>
-      <c r="C61" t="n">
-        <v>403191.4644818192</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1694140.062462492</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2036553.915535682</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1515047.281851632</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1290140.760539979</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1132540.788478838</v>
-      </c>
-      <c r="I61" t="n">
-        <v>935934.5618719142</v>
-      </c>
-      <c r="J61" t="n">
-        <v>264204.6787229119</v>
-      </c>
-      <c r="K61" t="n">
-        <v>945857.7803917956</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-126964.7683519933</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1002432.824685447</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4117329.254753231</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4732643.087811684</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7076586.087785372</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5111884.342817233</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4343640.562808256</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4547266.901986545</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5769279.784292432</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4965718.997254648</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5549227.185711866</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4315849.782465299</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5153686.513041807</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5862819.768957949</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>780592.0981616438</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1186715.149904007</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1391378.806913283</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1807064.088847998</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1433099.07992892</v>
-      </c>
-      <c r="G63" t="n">
-        <v>343258.5312979564</v>
-      </c>
-      <c r="H63" t="n">
-        <v>491259.6234603855</v>
-      </c>
-      <c r="I63" t="n">
-        <v>329653.5335653503</v>
-      </c>
-      <c r="J63" t="n">
-        <v>182020.5139132986</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-405591.4529722955</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-1342937.044340121</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-579942.619075696</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1974952.534517711</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1875867.810765012</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3575676.389379703</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2124287.905354227</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1985227.182180119</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2271624.317871667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2273826.490935342</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2121680.153628401</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4273617.854369488</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3447092.465634632</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2355481.078705573</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2468412.575148017</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2445508.719692583</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2612104.073161972</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2938405.343738137</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4130815.081333566</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4885317.842289647</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4335241.591246927</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4892156.958915748</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4760752.984253911</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5093531.269007817</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5696732.07095942</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4981408.978070583</v>
-      </c>
-      <c r="M65" t="n">
-        <v>5123918.758829182</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5835809.892407212</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4713250.508708336</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5950667.128728529</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7094796.231026234</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5530070.942272569</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5291742.142169371</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6584542.625999818</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5006810.876926484</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5681001.667121781</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7582588.349981807</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4800301.332301209</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6097127.292536747</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>623096.9285994818</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1003674.995950028</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1170081.36535147</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1252146.706817319</v>
-      </c>
-      <c r="F67" t="n">
-        <v>860595.9932872697</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1143035.390195493</v>
-      </c>
-      <c r="H67" t="n">
-        <v>966921.007243</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1104087.247663325</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1644789.548997608</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1718822.678640318</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1051914.623144119</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1580509.210419022</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2475751.945344564</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2729391.19554482</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2981002.717615842</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3356351.684197071</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2459089.802048685</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3628197.026704596</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3132823.788445559</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3392916.954953029</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3198066.268427965</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3282181.019619659</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2814273.425006567</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2838891.947314001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2410135.945353238</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2854915.884118953</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2697050.841345651</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3050804.733655777</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2633692.483280169</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2499117.029908095</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2575005.204187186</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2624898.339596545</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3720374.976766473</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3596532.299950653</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3488004.283487123</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3143422.480586993</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>39395425.50939882</v>
-      </c>
-      <c r="C70" t="n">
-        <v>52854071.97527549</v>
-      </c>
-      <c r="D70" t="n">
-        <v>47246463.922155</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62022300.78609148</v>
-      </c>
-      <c r="F70" t="n">
-        <v>58447835.65887534</v>
-      </c>
-      <c r="G70" t="n">
-        <v>74140814.31935126</v>
-      </c>
-      <c r="H70" t="n">
-        <v>73300581.70042254</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92174521.29691646</v>
-      </c>
-      <c r="J70" t="n">
-        <v>90227719.2056497</v>
-      </c>
-      <c r="K70" t="n">
-        <v>110182522.7101426</v>
-      </c>
-      <c r="L70" t="n">
-        <v>105502693.7700083</v>
-      </c>
-      <c r="M70" t="n">
-        <v>128404380.4781756</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19517684.11989886</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34031441.25142457</v>
-      </c>
-      <c r="D71" t="n">
-        <v>31216367.27901427</v>
-      </c>
-      <c r="E71" t="n">
-        <v>39228835.03187077</v>
-      </c>
-      <c r="F71" t="n">
-        <v>42763568.4544585</v>
-      </c>
-      <c r="G71" t="n">
-        <v>45794994.33711581</v>
-      </c>
-      <c r="H71" t="n">
-        <v>41043000.93768355</v>
-      </c>
-      <c r="I71" t="n">
-        <v>43362221.75482085</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44543018.79788555</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47950510.08840433</v>
-      </c>
-      <c r="L71" t="n">
-        <v>53850390.17906489</v>
-      </c>
-      <c r="M71" t="n">
-        <v>91256229.30538569</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-4624556.553556259</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2818543.794131059</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3700854.1297192</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-3321579.586327983</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5522618.995248588</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-7143836.747566067</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-1295600.193130099</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-5984194.593752062</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-8666672.846925287</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-11724664.34420165</v>
-      </c>
-      <c r="L72" t="n">
-        <v>-7026534.959486041</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-11378422.74577449</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11860543.76166134</v>
-      </c>
-      <c r="C73" t="n">
-        <v>14771394.09085313</v>
-      </c>
-      <c r="D73" t="n">
-        <v>16669699.91945065</v>
-      </c>
-      <c r="E73" t="n">
-        <v>17449176.98692269</v>
-      </c>
-      <c r="F73" t="n">
-        <v>21288707.96234457</v>
-      </c>
-      <c r="G73" t="n">
-        <v>18524319.35904968</v>
-      </c>
-      <c r="H73" t="n">
-        <v>21987458.89031749</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21214928.09923019</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22018148.93394753</v>
-      </c>
-      <c r="K73" t="n">
-        <v>22889399.61429938</v>
-      </c>
-      <c r="L73" t="n">
-        <v>22972575.2071965</v>
-      </c>
-      <c r="M73" t="n">
-        <v>29886961.92238203</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-8162.936071000993</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11593640.04319368</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12140696.21645151</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10035507.55800666</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8572068.149859751</v>
-      </c>
-      <c r="G74" t="n">
-        <v>5931826.116080439</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4544704.287737694</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3222965.111572089</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-75706.74584627151</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1339776.328958608</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1023607.555509478</v>
-      </c>
-      <c r="M74" t="n">
-        <v>3043280.874092836</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>12375571.69906557</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9282709.359614309</v>
-      </c>
-      <c r="D75" t="n">
-        <v>17353332.30922359</v>
-      </c>
-      <c r="E75" t="n">
-        <v>16072002.82684069</v>
-      </c>
-      <c r="F75" t="n">
-        <v>21377044.85256357</v>
-      </c>
-      <c r="G75" t="n">
-        <v>23936000.51296065</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23217764.89115443</v>
-      </c>
-      <c r="I75" t="n">
-        <v>26113098.54598917</v>
-      </c>
-      <c r="J75" t="n">
-        <v>14555922.68645116</v>
-      </c>
-      <c r="K75" t="n">
-        <v>28871765.48909864</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27470267.31005196</v>
-      </c>
-      <c r="M75" t="n">
-        <v>27576726.08248433</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>18271264.07519491</v>
-      </c>
-      <c r="C76" t="n">
-        <v>20554848.60268723</v>
-      </c>
-      <c r="D76" t="n">
-        <v>24504730.22580983</v>
-      </c>
-      <c r="E76" t="n">
-        <v>29550914.13023526</v>
-      </c>
-      <c r="F76" t="n">
-        <v>31864721.30783711</v>
-      </c>
-      <c r="G76" t="n">
-        <v>33734975.51234648</v>
-      </c>
-      <c r="H76" t="n">
-        <v>41495017.51848088</v>
-      </c>
-      <c r="I76" t="n">
-        <v>39963139.64231859</v>
-      </c>
-      <c r="J76" t="n">
-        <v>36928625.05812851</v>
-      </c>
-      <c r="K76" t="n">
-        <v>38998996.38546573</v>
-      </c>
-      <c r="L76" t="n">
-        <v>41312863.06439835</v>
-      </c>
-      <c r="M76" t="n">
-        <v>44645022.37318268</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>20601225.11624946</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23889260.03689628</v>
-      </c>
-      <c r="D77" t="n">
-        <v>23727687.26232482</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26871177.44172913</v>
-      </c>
-      <c r="F77" t="n">
-        <v>27611611.63900586</v>
-      </c>
-      <c r="G77" t="n">
-        <v>32390000.59714078</v>
-      </c>
-      <c r="H77" t="n">
-        <v>34670592.92021636</v>
-      </c>
-      <c r="I77" t="n">
-        <v>37265120.67046881</v>
-      </c>
-      <c r="J77" t="n">
-        <v>41465472.00743479</v>
-      </c>
-      <c r="K77" t="n">
-        <v>50298876.01699176</v>
-      </c>
-      <c r="L77" t="n">
-        <v>51350514.66094081</v>
-      </c>
-      <c r="M77" t="n">
-        <v>48935513.88224947</v>
+        <v>4594627.158571651</v>
       </c>
     </row>
   </sheetData>
